--- a/NIDIO_datasets.xlsx
+++ b/NIDIO_datasets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chrai\surfdrive - C. Janietz@surfdrive.surf.nl\Beyond Boardroom\Data and syntax\NIDIO\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA93E7B-857C-4C59-84FA-1F1E023E6C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC56C54-BFA0-4201-8843-FE516E1AC8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DC697795-19F4-4041-8EB6-6D5B7767E7B5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
   <si>
     <t>Module</t>
   </si>
@@ -117,6 +117,141 @@
   </si>
   <si>
     <t>File size</t>
+  </si>
+  <si>
+    <t>66.6 MB</t>
+  </si>
+  <si>
+    <t>nidio_abr_og_register_2006_2023</t>
+  </si>
+  <si>
+    <t>nidio_abr_og_size_2006_2023</t>
+  </si>
+  <si>
+    <t>nidio_abr_ogbe_register_2006_2023</t>
+  </si>
+  <si>
+    <t>nidio_abr_ogkvk_register_2006_2023</t>
+  </si>
+  <si>
+    <t>nidio_nfo_finances_2006_2022</t>
+  </si>
+  <si>
+    <t>nidio_nfo_og_2006_2022</t>
+  </si>
+  <si>
+    <t>nidio_spolis_beid_register_2006_2023</t>
+  </si>
+  <si>
+    <t>nidio_gba_rin_2023</t>
+  </si>
+  <si>
+    <t>nidio_kindouder_parents_2023</t>
+  </si>
+  <si>
+    <t>nidio_partnerbus_rin_allyears</t>
+  </si>
+  <si>
+    <t>nidio_ebb_occ_2006_2023</t>
+  </si>
+  <si>
+    <t>nidio_nea_occ_2006_2022</t>
+  </si>
+  <si>
+    <t>nidio_spolis_month_2006_2023</t>
+  </si>
+  <si>
+    <t>nidio_spolis_year_2006_2023</t>
+  </si>
+  <si>
+    <t>nidio_opl_rin_2006_2023</t>
+  </si>
+  <si>
+    <t>6.02 GB</t>
+  </si>
+  <si>
+    <t>173 MB</t>
+  </si>
+  <si>
+    <t>84.9 MB</t>
+  </si>
+  <si>
+    <t>652 MB</t>
+  </si>
+  <si>
+    <t>1.24 GB</t>
+  </si>
+  <si>
+    <t>390 MB</t>
+  </si>
+  <si>
+    <t>278 MB</t>
+  </si>
+  <si>
+    <t>0.98 GB</t>
+  </si>
+  <si>
+    <t>644 MB</t>
+  </si>
+  <si>
+    <t>144 MB</t>
+  </si>
+  <si>
+    <t>15.3 MB</t>
+  </si>
+  <si>
+    <t>1.1 GB</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Unique jobs existing between 2006 and 2023.</t>
+  </si>
+  <si>
+    <t>Unique jobs existing in September between 2006 and 2023.</t>
+  </si>
+  <si>
+    <t>Unique yearly OG observations (OG-years) between 2006 and 2023.</t>
+  </si>
+  <si>
+    <t>Employing BE units attached to OG-years between 2006 and 2023.</t>
+  </si>
+  <si>
+    <t>KVK IDs &amp; FINRs attached to OG-years between 2006 and 2023.</t>
+  </si>
+  <si>
+    <t>Number of employees per OG-year between 2006 and 2023.</t>
+  </si>
+  <si>
+    <t>Aggregated financial data of OG-years between 2006 and 2022.</t>
+  </si>
+  <si>
+    <t>Complete financial data of firms between 2006 and 2022.</t>
+  </si>
+  <si>
+    <t>Yearly register of employing BE units (at least one employee in SPOLIS).</t>
+  </si>
+  <si>
+    <t>Demographic characteristics of individuals registered in the GBR.</t>
+  </si>
+  <si>
+    <t>Highest registered education of individuals between 2006 and 2023.</t>
+  </si>
+  <si>
+    <t>Register of parents and their linked children up until 2023.</t>
+  </si>
+  <si>
+    <t>Partnership register of cohabiting partners and the period of cohabitation.</t>
+  </si>
+  <si>
+    <t>Individuals' occupation (ISCO-08) as collected by NEA survey.</t>
+  </si>
+  <si>
+    <t>Individuals' occupation (ISCO-08) as collected by EBB survey.</t>
+  </si>
+  <si>
+    <t>37.1 GB</t>
   </si>
   <si>
     <r>
@@ -128,7 +263,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>year-slbaanid</t>
+      <t>year-rinpersoon-baanrugid/ikvid</t>
     </r>
     <r>
       <rPr>
@@ -138,146 +273,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> [year-rinpersoon (if only mainjob)]</t>
+      <t xml:space="preserve"> 
+year-rinpersoon (if only mainjob)</t>
     </r>
-  </si>
-  <si>
-    <t>66.6 MB</t>
-  </si>
-  <si>
-    <t>45.1GB</t>
-  </si>
-  <si>
-    <t>32.7 GB</t>
-  </si>
-  <si>
-    <t>nidio_abr_og_register_2006_2023</t>
-  </si>
-  <si>
-    <t>nidio_abr_og_size_2006_2023</t>
-  </si>
-  <si>
-    <t>nidio_abr_ogbe_register_2006_2023</t>
-  </si>
-  <si>
-    <t>nidio_abr_ogkvk_register_2006_2023</t>
-  </si>
-  <si>
-    <t>nidio_nfo_finances_2006_2022</t>
-  </si>
-  <si>
-    <t>nidio_nfo_og_2006_2022</t>
-  </si>
-  <si>
-    <t>nidio_spolis_beid_register_2006_2023</t>
-  </si>
-  <si>
-    <t>nidio_gba_rin_2023</t>
-  </si>
-  <si>
-    <t>nidio_kindouder_parents_2023</t>
-  </si>
-  <si>
-    <t>nidio_partnerbus_rin_allyears</t>
-  </si>
-  <si>
-    <t>nidio_ebb_occ_2006_2023</t>
-  </si>
-  <si>
-    <t>nidio_nea_occ_2006_2022</t>
-  </si>
-  <si>
-    <t>nidio_spolis_month_2006_2023</t>
-  </si>
-  <si>
-    <t>nidio_spolis_year_2006_2023</t>
-  </si>
-  <si>
-    <t>nidio_opl_rin_2006_2023</t>
-  </si>
-  <si>
-    <t>6.02 GB</t>
-  </si>
-  <si>
-    <t>173 MB</t>
-  </si>
-  <si>
-    <t>84.9 MB</t>
-  </si>
-  <si>
-    <t>652 MB</t>
-  </si>
-  <si>
-    <t>1.24 GB</t>
-  </si>
-  <si>
-    <t>390 MB</t>
-  </si>
-  <si>
-    <t>278 MB</t>
-  </si>
-  <si>
-    <t>0.98 GB</t>
-  </si>
-  <si>
-    <t>644 MB</t>
-  </si>
-  <si>
-    <t>144 MB</t>
-  </si>
-  <si>
-    <t>15.3 MB</t>
-  </si>
-  <si>
-    <t>1.1 GB</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Unique jobs existing between 2006 and 2023.</t>
-  </si>
-  <si>
-    <t>Unique jobs existing in September between 2006 and 2023.</t>
-  </si>
-  <si>
-    <t>Unique yearly OG observations (OG-years) between 2006 and 2023.</t>
-  </si>
-  <si>
-    <t>Employing BE units attached to OG-years between 2006 and 2023.</t>
-  </si>
-  <si>
-    <t>KVK IDs &amp; FINRs attached to OG-years between 2006 and 2023.</t>
-  </si>
-  <si>
-    <t>Number of employees per OG-year between 2006 and 2023.</t>
-  </si>
-  <si>
-    <t>Aggregated financial data of OG-years between 2006 and 2022.</t>
-  </si>
-  <si>
-    <t>Complete financial data of firms between 2006 and 2022.</t>
-  </si>
-  <si>
-    <t>Yearly register of employing BE units (at least one employee in SPOLIS).</t>
-  </si>
-  <si>
-    <t>Demographic characteristics of individuals registered in the GBR.</t>
-  </si>
-  <si>
-    <t>Highest registered education of individuals between 2006 and 2023.</t>
-  </si>
-  <si>
-    <t>Register of parents and their linked children up until 2023.</t>
-  </si>
-  <si>
-    <t>Partnership register of cohabiting partners and the period of cohabitation.</t>
-  </si>
-  <si>
-    <t>Individuals' occupation (ISCO-08) as collected by NEA survey.</t>
-  </si>
-  <si>
-    <t>Individuals' occupation (ISCO-08) as collected by EBB survey.</t>
   </si>
 </sst>
 </file>
@@ -321,9 +319,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,7 +673,7 @@
         <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -680,16 +684,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -700,16 +704,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -720,16 +724,16 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -740,16 +744,16 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -760,16 +764,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -780,16 +784,16 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -800,16 +804,16 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -820,16 +824,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -840,16 +844,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -860,16 +864,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -880,16 +884,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -900,16 +904,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -920,56 +924,54 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="F14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/NIDIO_datasets.xlsx
+++ b/NIDIO_datasets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chrai\surfdrive - C. Janietz@surfdrive.surf.nl\Beyond Boardroom\Data and syntax\NIDIO\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC56C54-BFA0-4201-8843-FE516E1AC8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAB11DC-A454-4A8E-9865-2450AFA2780A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DC697795-19F4-4041-8EB6-6D5B7767E7B5}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{DC697795-19F4-4041-8EB6-6D5B7767E7B5}"/>
   </bookViews>
   <sheets>
     <sheet name="NIDIO" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
   <si>
     <t>Module</t>
   </si>
@@ -276,6 +276,9 @@
       <t xml:space="preserve"> 
 year-rinpersoon (if only mainjob)</t>
     </r>
+  </si>
+  <si>
+    <t>48.0 GB</t>
   </si>
 </sst>
 </file>
@@ -969,7 +972,9 @@
       <c r="D16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="F16" s="3" t="s">
         <v>55</v>
       </c>
